--- a/Express.xlsx
+++ b/Express.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cagatay.yildiz.BAOGRENCI\Desktop\MongooseSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889283C-E1B2-44D8-BF93-9010FCEA4A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D95BCA6-BF5B-4741-B4B7-84E786725406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Express.xlsx
+++ b/Express.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cagatay.yildiz.BAOGRENCI\Desktop\MongooseSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D95BCA6-BF5B-4741-B4B7-84E786725406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4849A9E5-93B4-4B07-9C3A-034D8995A126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
